--- a/data/kkd_test.xlsx
+++ b/data/kkd_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA82F63-C1D1-E94D-8EC7-D99ACC2E6F6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC233E35-B4FA-5540-8D43-302360920C06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="1720" windowWidth="24340" windowHeight="14720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="1720" windowWidth="24340" windowHeight="14720" tabRatio="500" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="apply" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="query_repayment_plan" sheetId="23" r:id="rId8"/>
     <sheet name="calculate" sheetId="27" r:id="rId9"/>
     <sheet name="offline_repay" sheetId="26" r:id="rId10"/>
+    <sheet name="deduction_share_sign" sheetId="29" r:id="rId11"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -425,6 +426,44 @@
 		"livingVerificationScreenshot": "/upload/In/FDCD000050/20200617/IMTP000001/Cos8o17Qq--AcVt4AABWVWxZe0k949.jpg",
 		"propertyCertificate": "/upload/In/FDCD000050/20200617/IMTP000001/Cos8o17Qq--AcVt4AABWVWxZe0k949.jpg"
 	}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议支付号共享推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/busi/deduction/share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"sourceCode": "wxjk",
+	"channel": "wxjk",
+	"productGroupId": "1110",
+	"productCode": "XJ_WX_KKD",
+	"serviceSn": "394919",
+	"requestTime": "2020-08-28 00:00:00",
+	"sourceUserId": "1923",
+	"transactionId": "3938489495991",
+	"sourceProjectId": "8399",
+	"projectId": "182939",
+	"businessType": 1,
+	"name": "张三",
+	"cardType": 0,
+	"cardNo": 372301199510103811,
+	"accountType": 0,
+	"bankId": "89",
+	"bankName": "招商银行",
+	"bankCardAccountType": 0,
+	"bankNo": "",
+	"bankPhone": "18833330022",
+	"bankValidity": "13800138001",
+	"bankSafetyCode": "3848193",
+	"signNo": "",
+	"authLetterNo": "",
+	"mark": ""
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -838,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2031,6 +2070,62 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57E1FBF-4514-1F4C-A7D0-D92132BFB1FF}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E2"/>

--- a/data/kkd_test.xlsx
+++ b/data/kkd_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\CloudLoan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC233E35-B4FA-5540-8D43-302360920C06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEAEAEB-67DF-4D61-8008-05C8930A450A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="1720" windowWidth="24340" windowHeight="14720" tabRatio="500" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="apply" sheetId="4" r:id="rId1"/>
@@ -434,10 +434,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1/busi/deduction/share</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 	"sourceCode": "wxjk",
 	"channel": "wxjk",
@@ -467,12 +463,16 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>/eridanus-api/sign/share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -881,16 +881,16 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.84375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.6640625" customWidth="1"/>
+    <col min="4" max="4" width="4.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -910,7 +910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="409.5">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -928,7 +928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="134" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="134" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -936,7 +936,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="134" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="134" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -944,7 +944,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="196" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="196" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -952,7 +952,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="196" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="196" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -960,7 +960,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="209" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -968,7 +968,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="209" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -976,7 +976,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="209" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -984,7 +984,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="209" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -992,7 +992,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="209" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1000,7 +1000,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="209" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1008,7 +1008,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="209" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1016,7 +1016,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="209" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1024,7 +1024,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="209" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1032,7 +1032,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="209" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -1040,7 +1040,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="209" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -1048,7 +1048,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="209" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -1056,7 +1056,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="209" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -1064,7 +1064,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="209" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -1072,7 +1072,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="209" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -1080,7 +1080,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="209" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
@@ -1088,7 +1088,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="209" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -1096,7 +1096,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="209" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -1104,7 +1104,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="209" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
@@ -1112,7 +1112,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="209" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
@@ -1120,7 +1120,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="209" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -1128,7 +1128,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="209" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
@@ -1136,7 +1136,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="209" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
@@ -1144,7 +1144,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="209" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
@@ -1152,7 +1152,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="209" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
@@ -1160,7 +1160,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="209" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
@@ -1168,7 +1168,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="209" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
@@ -1176,7 +1176,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="209" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
@@ -1184,7 +1184,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="209" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
@@ -1192,7 +1192,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="209" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
@@ -1200,7 +1200,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="209" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
@@ -1208,7 +1208,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="209" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
@@ -1216,7 +1216,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="209" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
@@ -1224,7 +1224,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="209" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
@@ -1232,7 +1232,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="209" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
@@ -1240,7 +1240,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="209" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
@@ -1248,7 +1248,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="209" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
@@ -1256,7 +1256,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="209" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
@@ -1264,7 +1264,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="209" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
@@ -1272,7 +1272,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="209" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
@@ -1280,7 +1280,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="209" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
@@ -1288,7 +1288,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="209" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
@@ -1296,7 +1296,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="209" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
@@ -1304,7 +1304,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="209" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
@@ -1312,7 +1312,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="209" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
@@ -1320,7 +1320,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="209" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
@@ -1328,7 +1328,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="209" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
@@ -1336,7 +1336,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="209" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
@@ -1344,7 +1344,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="209" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
@@ -1352,7 +1352,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="209" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
@@ -1360,7 +1360,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="209" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
@@ -1368,7 +1368,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="209" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
@@ -1376,7 +1376,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="209" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
@@ -1384,7 +1384,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="209" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
@@ -1392,7 +1392,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="209" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
@@ -1400,7 +1400,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="209" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
@@ -1408,7 +1408,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="209" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
@@ -1416,7 +1416,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="209" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
@@ -1424,7 +1424,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="209" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
@@ -1432,7 +1432,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="209" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="2"/>
@@ -1440,7 +1440,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="209" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
@@ -1448,7 +1448,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="209" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2"/>
@@ -1456,7 +1456,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="209" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2"/>
@@ -1464,7 +1464,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="209" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2"/>
@@ -1472,7 +1472,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="209" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
@@ -1480,7 +1480,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="209" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="2"/>
@@ -1488,7 +1488,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="209" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2"/>
@@ -1496,7 +1496,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="209" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
@@ -1504,7 +1504,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="209" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
@@ -1512,7 +1512,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="209" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
@@ -1520,7 +1520,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="209" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
@@ -1528,7 +1528,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="209" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="2"/>
@@ -1536,7 +1536,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="209" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="2"/>
@@ -1544,7 +1544,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="209" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2"/>
@@ -1552,7 +1552,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="209" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="2"/>
@@ -1560,7 +1560,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="209" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="2"/>
@@ -1568,7 +1568,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="209" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="2"/>
@@ -1576,7 +1576,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="209" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="2"/>
@@ -1584,7 +1584,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="209" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="2"/>
@@ -1592,7 +1592,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="209" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="2"/>
@@ -1600,7 +1600,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="209" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="2"/>
@@ -1608,7 +1608,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="209" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
@@ -1616,7 +1616,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="209" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
@@ -1624,7 +1624,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="209" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
@@ -1632,7 +1632,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="209" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
@@ -1640,7 +1640,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="209" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
@@ -1648,7 +1648,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="209" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
@@ -1656,7 +1656,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="209" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
@@ -1664,7 +1664,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="209" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
@@ -1672,7 +1672,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="209" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
@@ -1680,7 +1680,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="209" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2"/>
@@ -1688,7 +1688,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="209" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
@@ -1696,7 +1696,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="209" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
@@ -1704,7 +1704,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="209" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
@@ -1712,7 +1712,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="209" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
@@ -1720,7 +1720,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="209" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2"/>
@@ -1728,7 +1728,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="209" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2"/>
@@ -1736,7 +1736,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="209" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2"/>
@@ -1744,7 +1744,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="209" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
@@ -1752,7 +1752,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="209" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
@@ -1760,7 +1760,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="209" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2"/>
@@ -1768,7 +1768,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="209" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="2"/>
@@ -1776,7 +1776,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="209" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="2"/>
@@ -1784,7 +1784,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="209" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="2"/>
@@ -1792,7 +1792,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="209" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="2"/>
@@ -1800,7 +1800,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="209" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="2"/>
@@ -1808,7 +1808,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="209" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="2"/>
@@ -1816,7 +1816,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="209" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="2"/>
@@ -1824,7 +1824,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="209" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="2"/>
@@ -1832,7 +1832,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="209" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="2"/>
@@ -1840,7 +1840,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="209" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="2"/>
@@ -1848,7 +1848,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="209" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="2"/>
@@ -1856,7 +1856,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="209" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="2"/>
@@ -1864,7 +1864,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="209" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="2"/>
@@ -1872,7 +1872,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="209" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="2"/>
@@ -1880,7 +1880,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="209" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="2"/>
@@ -1888,7 +1888,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="209" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="2"/>
@@ -1896,7 +1896,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="209" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="2"/>
@@ -1904,7 +1904,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="209" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="2"/>
@@ -1912,7 +1912,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="209" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="2"/>
@@ -1920,7 +1920,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="209" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="2"/>
@@ -1928,7 +1928,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="209" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="2"/>
@@ -1936,7 +1936,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="209" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="2"/>
@@ -1944,7 +1944,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="209" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="2"/>
@@ -1952,7 +1952,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="209" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="2"/>
@@ -1960,7 +1960,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="209" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="2"/>
@@ -1968,7 +1968,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="209" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="2"/>
@@ -1976,7 +1976,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="209" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="2"/>
@@ -1984,7 +1984,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="209" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="2"/>
@@ -1992,7 +1992,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="209" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="2"/>
@@ -2000,7 +2000,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="209" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="2"/>
@@ -2022,15 +2022,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5" customWidth="1"/>
+    <col min="1" max="1" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="409.5">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -2075,18 +2075,18 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2103,18 +2103,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="409.5">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
@@ -2123,6 +2123,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2134,15 +2135,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.15234375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2159,7 +2160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="108.5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2188,15 +2189,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="51.5" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.4609375" customWidth="1"/>
+    <col min="2" max="2" width="42.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.84375" customWidth="1"/>
+    <col min="4" max="4" width="35.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2213,7 +2214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="155">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2230,56 +2231,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -2300,15 +2301,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="1" max="1" width="41.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.4609375" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2325,7 +2326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="93">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2342,28 +2343,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -2384,15 +2385,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2409,7 +2410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="187" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="170.5">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2440,15 +2441,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2465,7 +2466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="306" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="279">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -2496,15 +2497,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.4609375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="54.1640625" customWidth="1"/>
+    <col min="3" max="3" width="28.69140625" customWidth="1"/>
+    <col min="4" max="4" width="54.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2521,7 +2522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="93">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -2552,15 +2553,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2577,7 +2578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="108.5">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2608,15 +2609,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2633,7 +2634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="139.5">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>

--- a/data/kkd_test.xlsx
+++ b/data/kkd_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\CloudLoan\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEAEAEB-67DF-4D61-8008-05C8930A450A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32CBEE1-D4F4-DE48-AEF2-213449DF832D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="apply" sheetId="4" r:id="rId1"/>
@@ -311,6 +311,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>协议支付号共享推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"sourceCode": "wxjk",
+	"channel": "wxjk",
+	"productGroupId": "1110",
+	"productCode": "XJ_WX_KKD",
+	"serviceSn": "394919",
+	"requestTime": "2020-08-28 00:00:00",
+	"sourceUserId": "1923",
+	"transactionId": "3938489495991",
+	"sourceProjectId": "8399",
+	"projectId": "182939",
+	"businessType": 1,
+	"name": "张三",
+	"cardType": 0,
+	"cardNo": 372301199510103811,
+	"accountType": 0,
+	"bankId": "89",
+	"bankName": "招商银行",
+	"bankCardAccountType": 0,
+	"bankNo": "",
+	"bankPhone": "18833330022",
+	"bankValidity": "13800138001",
+	"bankSafetyCode": "3848193",
+	"signNo": "",
+	"authLetterNo": "",
+	"mark": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/eridanus-api/sign/share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 	"serviceSn": "1234567890000",
 	"channel": "wxjk",
@@ -332,9 +370,9 @@
 		"loanAmount": 45000,
 		"loanTerm": 9,
 		"cycleInterval": 0,
-		"assetInterestRate": 0.105000,
+		"assetInterestRate": 0.100000,
 		"assetInterestRatePeriod": 1,
-		"userInterestRate": 0.105000,
+		"userInterestRate": 0.100000,
 		"userInterestRatePeriod": 1,
 		"repayMethod": "AI",
 		"discountRate": 0.0,
@@ -429,50 +467,12 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>协议支付号共享推送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"sourceCode": "wxjk",
-	"channel": "wxjk",
-	"productGroupId": "1110",
-	"productCode": "XJ_WX_KKD",
-	"serviceSn": "394919",
-	"requestTime": "2020-08-28 00:00:00",
-	"sourceUserId": "1923",
-	"transactionId": "3938489495991",
-	"sourceProjectId": "8399",
-	"projectId": "182939",
-	"businessType": 1,
-	"name": "张三",
-	"cardType": 0,
-	"cardNo": 372301199510103811,
-	"accountType": 0,
-	"bankId": "89",
-	"bankName": "招商银行",
-	"bankCardAccountType": 0,
-	"bankNo": "",
-	"bankPhone": "18833330022",
-	"bankValidity": "13800138001",
-	"bankSafetyCode": "3848193",
-	"signNo": "",
-	"authLetterNo": "",
-	"mark": ""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/eridanus-api/sign/share</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -877,20 +877,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="4.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.69140625" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -910,7 +910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.5">
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -922,13 +922,13 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="134" customHeight="1">
+    <row r="3" spans="1:6" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -936,7 +936,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="134" customHeight="1">
+    <row r="4" spans="1:6" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -944,7 +944,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="196" customHeight="1">
+    <row r="5" spans="1:6" ht="196" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -952,7 +952,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="196" customHeight="1">
+    <row r="6" spans="1:6" ht="196" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -960,7 +960,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="209" customHeight="1">
+    <row r="7" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -968,7 +968,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="209" customHeight="1">
+    <row r="8" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -976,7 +976,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="209" customHeight="1">
+    <row r="9" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -984,7 +984,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="209" customHeight="1">
+    <row r="10" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -992,7 +992,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="209" customHeight="1">
+    <row r="11" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1000,7 +1000,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="209" customHeight="1">
+    <row r="12" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1008,7 +1008,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="209" customHeight="1">
+    <row r="13" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1016,7 +1016,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="209" customHeight="1">
+    <row r="14" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1024,7 +1024,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="209" customHeight="1">
+    <row r="15" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1032,7 +1032,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="209" customHeight="1">
+    <row r="16" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -1040,7 +1040,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="209" customHeight="1">
+    <row r="17" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -1048,7 +1048,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="209" customHeight="1">
+    <row r="18" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -1056,7 +1056,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="209" customHeight="1">
+    <row r="19" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -1064,7 +1064,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="209" customHeight="1">
+    <row r="20" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -1072,7 +1072,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="209" customHeight="1">
+    <row r="21" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -1080,7 +1080,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="209" customHeight="1">
+    <row r="22" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
@@ -1088,7 +1088,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="209" customHeight="1">
+    <row r="23" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -1096,7 +1096,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="209" customHeight="1">
+    <row r="24" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -1104,7 +1104,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="209" customHeight="1">
+    <row r="25" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
@@ -1112,7 +1112,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="209" customHeight="1">
+    <row r="26" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
@@ -1120,7 +1120,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="209" customHeight="1">
+    <row r="27" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -1128,7 +1128,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="209" customHeight="1">
+    <row r="28" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
@@ -1136,7 +1136,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="209" customHeight="1">
+    <row r="29" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
@@ -1144,7 +1144,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="209" customHeight="1">
+    <row r="30" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
@@ -1152,7 +1152,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="209" customHeight="1">
+    <row r="31" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
@@ -1160,7 +1160,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="209" customHeight="1">
+    <row r="32" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
@@ -1168,7 +1168,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" ht="209" customHeight="1">
+    <row r="33" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
@@ -1176,7 +1176,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="209" customHeight="1">
+    <row r="34" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
@@ -1184,7 +1184,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="209" customHeight="1">
+    <row r="35" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
@@ -1192,7 +1192,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" ht="209" customHeight="1">
+    <row r="36" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
@@ -1200,7 +1200,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="209" customHeight="1">
+    <row r="37" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
@@ -1208,7 +1208,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="209" customHeight="1">
+    <row r="38" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
@@ -1216,7 +1216,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="209" customHeight="1">
+    <row r="39" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
@@ -1224,7 +1224,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" ht="209" customHeight="1">
+    <row r="40" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
@@ -1232,7 +1232,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" ht="209" customHeight="1">
+    <row r="41" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
@@ -1240,7 +1240,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" ht="209" customHeight="1">
+    <row r="42" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
@@ -1248,7 +1248,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" ht="209" customHeight="1">
+    <row r="43" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
@@ -1256,7 +1256,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" ht="209" customHeight="1">
+    <row r="44" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
@@ -1264,7 +1264,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" ht="209" customHeight="1">
+    <row r="45" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
@@ -1272,7 +1272,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" ht="209" customHeight="1">
+    <row r="46" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
@@ -1280,7 +1280,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" ht="209" customHeight="1">
+    <row r="47" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
@@ -1288,7 +1288,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" ht="209" customHeight="1">
+    <row r="48" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
@@ -1296,7 +1296,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" ht="209" customHeight="1">
+    <row r="49" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
@@ -1304,7 +1304,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" ht="209" customHeight="1">
+    <row r="50" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
@@ -1312,7 +1312,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" ht="209" customHeight="1">
+    <row r="51" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
@@ -1320,7 +1320,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" ht="209" customHeight="1">
+    <row r="52" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
@@ -1328,7 +1328,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" ht="209" customHeight="1">
+    <row r="53" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
@@ -1336,7 +1336,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" ht="209" customHeight="1">
+    <row r="54" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
@@ -1344,7 +1344,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" ht="209" customHeight="1">
+    <row r="55" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
@@ -1352,7 +1352,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" ht="209" customHeight="1">
+    <row r="56" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
@@ -1360,7 +1360,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" ht="209" customHeight="1">
+    <row r="57" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
@@ -1368,7 +1368,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" ht="209" customHeight="1">
+    <row r="58" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
@@ -1376,7 +1376,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" ht="209" customHeight="1">
+    <row r="59" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
@@ -1384,7 +1384,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" ht="209" customHeight="1">
+    <row r="60" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
@@ -1392,7 +1392,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" ht="209" customHeight="1">
+    <row r="61" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
@@ -1400,7 +1400,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" ht="209" customHeight="1">
+    <row r="62" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
@@ -1408,7 +1408,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" ht="209" customHeight="1">
+    <row r="63" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
@@ -1416,7 +1416,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" ht="209" customHeight="1">
+    <row r="64" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
@@ -1424,7 +1424,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" ht="209" customHeight="1">
+    <row r="65" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
@@ -1432,7 +1432,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" ht="209" customHeight="1">
+    <row r="66" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="2"/>
@@ -1440,7 +1440,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" ht="209" customHeight="1">
+    <row r="67" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
@@ -1448,7 +1448,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" ht="209" customHeight="1">
+    <row r="68" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2"/>
@@ -1456,7 +1456,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" ht="209" customHeight="1">
+    <row r="69" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2"/>
@@ -1464,7 +1464,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" ht="209" customHeight="1">
+    <row r="70" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2"/>
@@ -1472,7 +1472,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" ht="209" customHeight="1">
+    <row r="71" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
@@ -1480,7 +1480,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" ht="209" customHeight="1">
+    <row r="72" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="2"/>
@@ -1488,7 +1488,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" ht="209" customHeight="1">
+    <row r="73" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2"/>
@@ -1496,7 +1496,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" ht="209" customHeight="1">
+    <row r="74" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
@@ -1504,7 +1504,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" ht="209" customHeight="1">
+    <row r="75" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
@@ -1512,7 +1512,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" ht="209" customHeight="1">
+    <row r="76" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
@@ -1520,7 +1520,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" ht="209" customHeight="1">
+    <row r="77" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
@@ -1528,7 +1528,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" ht="209" customHeight="1">
+    <row r="78" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="2"/>
@@ -1536,7 +1536,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" ht="209" customHeight="1">
+    <row r="79" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="2"/>
@@ -1544,7 +1544,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6" ht="209" customHeight="1">
+    <row r="80" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2"/>
@@ -1552,7 +1552,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" ht="209" customHeight="1">
+    <row r="81" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="2"/>
@@ -1560,7 +1560,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" ht="209" customHeight="1">
+    <row r="82" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="2"/>
@@ -1568,7 +1568,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" ht="209" customHeight="1">
+    <row r="83" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="2"/>
@@ -1576,7 +1576,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" ht="209" customHeight="1">
+    <row r="84" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="2"/>
@@ -1584,7 +1584,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" ht="209" customHeight="1">
+    <row r="85" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="2"/>
@@ -1592,7 +1592,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" ht="209" customHeight="1">
+    <row r="86" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="2"/>
@@ -1600,7 +1600,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" ht="209" customHeight="1">
+    <row r="87" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="2"/>
@@ -1608,7 +1608,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" ht="209" customHeight="1">
+    <row r="88" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
@@ -1616,7 +1616,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" ht="209" customHeight="1">
+    <row r="89" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
@@ -1624,7 +1624,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" ht="209" customHeight="1">
+    <row r="90" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
@@ -1632,7 +1632,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" ht="209" customHeight="1">
+    <row r="91" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
@@ -1640,7 +1640,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" ht="209" customHeight="1">
+    <row r="92" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
@@ -1648,7 +1648,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" ht="209" customHeight="1">
+    <row r="93" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
@@ -1656,7 +1656,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" ht="209" customHeight="1">
+    <row r="94" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
@@ -1664,7 +1664,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" ht="209" customHeight="1">
+    <row r="95" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
@@ -1672,7 +1672,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" ht="209" customHeight="1">
+    <row r="96" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
@@ -1680,7 +1680,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" ht="209" customHeight="1">
+    <row r="97" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2"/>
@@ -1688,7 +1688,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" ht="209" customHeight="1">
+    <row r="98" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
@@ -1696,7 +1696,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" ht="209" customHeight="1">
+    <row r="99" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
@@ -1704,7 +1704,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" ht="209" customHeight="1">
+    <row r="100" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
@@ -1712,7 +1712,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" ht="209" customHeight="1">
+    <row r="101" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
@@ -1720,7 +1720,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" ht="209" customHeight="1">
+    <row r="102" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2"/>
@@ -1728,7 +1728,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" ht="209" customHeight="1">
+    <row r="103" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2"/>
@@ -1736,7 +1736,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" ht="209" customHeight="1">
+    <row r="104" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2"/>
@@ -1744,7 +1744,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6" ht="209" customHeight="1">
+    <row r="105" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
@@ -1752,7 +1752,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6" ht="209" customHeight="1">
+    <row r="106" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
@@ -1760,7 +1760,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6" ht="209" customHeight="1">
+    <row r="107" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2"/>
@@ -1768,7 +1768,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" ht="209" customHeight="1">
+    <row r="108" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="2"/>
@@ -1776,7 +1776,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6" ht="209" customHeight="1">
+    <row r="109" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="2"/>
@@ -1784,7 +1784,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6" ht="209" customHeight="1">
+    <row r="110" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="2"/>
@@ -1792,7 +1792,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6" ht="209" customHeight="1">
+    <row r="111" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="2"/>
@@ -1800,7 +1800,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6" ht="209" customHeight="1">
+    <row r="112" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="2"/>
@@ -1808,7 +1808,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6" ht="209" customHeight="1">
+    <row r="113" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="2"/>
@@ -1816,7 +1816,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" ht="209" customHeight="1">
+    <row r="114" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="2"/>
@@ -1824,7 +1824,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6" ht="209" customHeight="1">
+    <row r="115" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="2"/>
@@ -1832,7 +1832,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" ht="209" customHeight="1">
+    <row r="116" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="2"/>
@@ -1840,7 +1840,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6" ht="209" customHeight="1">
+    <row r="117" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="2"/>
@@ -1848,7 +1848,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6" ht="209" customHeight="1">
+    <row r="118" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="2"/>
@@ -1856,7 +1856,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" ht="209" customHeight="1">
+    <row r="119" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="2"/>
@@ -1864,7 +1864,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" ht="209" customHeight="1">
+    <row r="120" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="2"/>
@@ -1872,7 +1872,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6" ht="209" customHeight="1">
+    <row r="121" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="2"/>
@@ -1880,7 +1880,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6" ht="209" customHeight="1">
+    <row r="122" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="2"/>
@@ -1888,7 +1888,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" ht="209" customHeight="1">
+    <row r="123" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="2"/>
@@ -1896,7 +1896,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6" ht="209" customHeight="1">
+    <row r="124" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="2"/>
@@ -1904,7 +1904,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6" ht="209" customHeight="1">
+    <row r="125" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="2"/>
@@ -1912,7 +1912,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6" ht="209" customHeight="1">
+    <row r="126" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="2"/>
@@ -1920,7 +1920,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6" ht="209" customHeight="1">
+    <row r="127" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="2"/>
@@ -1928,7 +1928,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6" ht="209" customHeight="1">
+    <row r="128" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="2"/>
@@ -1936,7 +1936,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" ht="209" customHeight="1">
+    <row r="129" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="2"/>
@@ -1944,7 +1944,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6" ht="209" customHeight="1">
+    <row r="130" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="2"/>
@@ -1952,7 +1952,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6" ht="209" customHeight="1">
+    <row r="131" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="2"/>
@@ -1960,7 +1960,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6" ht="209" customHeight="1">
+    <row r="132" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="2"/>
@@ -1968,7 +1968,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6" ht="209" customHeight="1">
+    <row r="133" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="2"/>
@@ -1976,7 +1976,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6" ht="209" customHeight="1">
+    <row r="134" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="2"/>
@@ -1984,7 +1984,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6" ht="209" customHeight="1">
+    <row r="135" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="2"/>
@@ -1992,7 +1992,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6" ht="209" customHeight="1">
+    <row r="136" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="2"/>
@@ -2000,7 +2000,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6" ht="209" customHeight="1">
+    <row r="137" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="2"/>
@@ -2022,15 +2022,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.4609375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.4609375" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.5">
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -2074,19 +2074,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57E1FBF-4514-1F4C-A7D0-D92132BFB1FF}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.4609375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2103,18 +2103,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.5">
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
@@ -2135,15 +2135,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="7.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="108.5">
+    <row r="2" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2189,15 +2189,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.4609375" customWidth="1"/>
-    <col min="2" max="2" width="42.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.84375" customWidth="1"/>
-    <col min="4" max="4" width="35.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="155">
+    <row r="2" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2231,56 +2231,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -2301,15 +2301,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.4609375" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="93">
+    <row r="2" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2343,28 +2343,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -2385,15 +2385,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="170.5">
+    <row r="2" spans="1:5" ht="187" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2441,15 +2441,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="279">
+    <row r="2" spans="1:5" ht="306" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -2497,15 +2497,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.69140625" customWidth="1"/>
-    <col min="4" max="4" width="54.15234375" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="93">
+    <row r="2" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -2553,15 +2553,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.4609375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.3046875" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="108.5">
+    <row r="2" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2609,15 +2609,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.4609375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="139.5">
+    <row r="2" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>

--- a/data/kkd_test.xlsx
+++ b/data/kkd_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32CBEE1-D4F4-DE48-AEF2-213449DF832D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF244D47-B156-4D40-B215-A817AC99CF19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="apply" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="offline_repay" sheetId="26" r:id="rId10"/>
     <sheet name="deduction_share_sign" sheetId="29" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="41">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -464,6 +464,20 @@
 		"livingVerificationScreenshot": "/upload/In/FDCD000050/20200617/IMTP000001/Cos8o17Qq--AcVt4AABWVWxZe0k949.jpg",
 		"propertyCertificate": "/upload/In/FDCD000050/20200617/IMTP000001/Cos8o17Qq--AcVt4AABWVWxZe0k949.jpg"
 	}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "wxjk",
+  "sourceCode": "wxjk",
+  "serviceSn": "1547904999999",
+  "sourceUserId": "45",
+  "contractType": 14,
+  "sourceContractId": "123423007",
+  "associationId": "7980652574031872",
+  "transactionId": "Test_45",
+  "content": ""
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -877,7 +891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -2131,8 +2145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2140,7 +2154,7 @@
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -2160,7 +2174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="187" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2170,7 +2184,9 @@
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
